--- a/張莎煒A103230008--20171020.xlsx
+++ b/張莎煒A103230008--20171020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="14380" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Predict" sheetId="8" r:id="rId1"/>
@@ -6777,11 +6777,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2138400176"/>
-        <c:axId val="-2138204464"/>
+        <c:axId val="-2105115808"/>
+        <c:axId val="-2099422096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2138400176"/>
+        <c:axId val="-2105115808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6791,7 +6791,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138204464"/>
+        <c:crossAx val="-2099422096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6799,7 +6799,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138204464"/>
+        <c:axId val="-2099422096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6810,7 +6810,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138400176"/>
+        <c:crossAx val="-2105115808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12830,11 +12830,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2135619536"/>
-        <c:axId val="-2129249984"/>
+        <c:axId val="2102188768"/>
+        <c:axId val="2102281104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2135619536"/>
+        <c:axId val="2102188768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12844,7 +12844,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129249984"/>
+        <c:crossAx val="2102281104"/>
         <c:crossesAt val="-0.025"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12852,7 +12852,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2129249984"/>
+        <c:axId val="2102281104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12863,7 +12863,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135619536"/>
+        <c:crossAx val="2102188768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13220,8 +13220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -13292,8 +13292,8 @@
         <v>43024</v>
       </c>
       <c r="B3" s="42">
-        <f>Data!P4-5*Data!Q4</f>
-        <v>-3.3304047423360383E-6</v>
+        <f>Data!P4-50*Data!Q4</f>
+        <v>-3.5715464434075478E-6</v>
       </c>
       <c r="C3" s="43">
         <f>Data!P4+1.5*Data!Q4</f>
@@ -13301,7 +13301,7 @@
       </c>
       <c r="D3" s="44">
         <f>Data!B986+B3</f>
-        <v>1.1830966695952576</v>
+        <v>1.1830964284535566</v>
       </c>
       <c r="E3" s="38">
         <f>Data!B986+C3</f>
@@ -13468,9 +13468,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S992"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -52080,7 +52080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B992"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A992" sqref="A992:B992"/>
     </sheetView>
   </sheetViews>
